--- a/testTranslations.xlsx
+++ b/testTranslations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">origin</t>
   </si>
@@ -53,7 +53,16 @@
     <t xml:space="preserve">pattern for translation</t>
   </si>
   <si>
-    <t xml:space="preserve">$6,350</t>
+    <t xml:space="preserve">^\$\d,\d{3}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d+ per person / \$\d+ per group$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s por persona/ %s por grupo </t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,6 +246,10 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -323,26 +336,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.7368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.165991902834"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.2712550607288"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1266,17 +1279,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.412955465587"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,7 +1305,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/testTranslations.xlsx
+++ b/testTranslations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">origin</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t xml:space="preserve">%s por persona/ %s por grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*\,?\d+\s?Individual\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*\,?\d+\s?Family\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+\,?\d*\%\s?Coinsurance\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Coseguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\$\d*\,?\d+\s?Copay\s*$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%s Copago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^\d+\,?\d*\%\s?Coinsurance after deductible\s*$</t>
   </si>
 </sst>
 </file>
@@ -73,7 +100,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,6 +149,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -198,7 +230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +282,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1279,10 +1315,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1316,6 +1352,43 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
